--- a/data/trans_orig/IP06-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP06-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EEB2805-F825-448B-9C06-48FBC1C1F30E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{57AF72CA-F61C-43BB-8B8D-2F47A2C9118D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C72AB60B-F1A5-4D6D-B547-E59C70C9A2D4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5C54A613-3009-42F3-A701-730EB03A4E4C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="654">
   <si>
     <t>Población según si tiene coche en 2007 (Tasa respuesta: 99,81%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>994.0</t>
@@ -95,22 +95,22 @@
     <t>2,97%</t>
   </si>
   <si>
-    <t>16,5%</t>
+    <t>15,22%</t>
   </si>
   <si>
     <t>7,23%</t>
   </si>
   <si>
-    <t>25,52%</t>
+    <t>23,33%</t>
   </si>
   <si>
     <t>4,98%</t>
   </si>
   <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
   </si>
   <si>
     <t>Más de dos</t>
@@ -119,40 +119,43 @@
     <t>2,06%</t>
   </si>
   <si>
-    <t>12,85%</t>
+    <t>10,87%</t>
   </si>
   <si>
     <t>1,09%</t>
   </si>
   <si>
+    <t>5,47%</t>
+  </si>
+  <si>
     <t>Dos</t>
   </si>
   <si>
     <t>39,2%</t>
   </si>
   <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
   </si>
   <si>
     <t>58,14%</t>
   </si>
   <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
   </si>
   <si>
     <t>48,14%</t>
   </si>
   <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
   </si>
   <si>
     <t>Uno</t>
@@ -161,34 +164,34 @@
     <t>55,77%</t>
   </si>
   <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
   </si>
   <si>
     <t>34,63%</t>
   </si>
   <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
   </si>
   <si>
     <t>45,8%</t>
   </si>
   <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>59,7%</t>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,99%</t>
@@ -203,1741 +206,1750 @@
     <t>14,31%</t>
   </si>
   <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>62,53%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
     <t>9,61%</t>
   </si>
   <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Población según si tiene coche en 2012 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
   </si>
   <si>
     <t>2,93%</t>
   </si>
   <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>58,6%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>62,46%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>Población según si tiene coche en 2016 (Tasa respuesta: 99,72%)</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>71,42%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
   </si>
   <si>
     <t>3,91%</t>
   </si>
   <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
   </si>
   <si>
     <t>63,67%</t>
   </si>
   <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>59,69%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Población según si tiene coche en 2012 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>53,03%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>68,17%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>Población según si tiene coche en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
   </si>
   <si>
     <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>58,6%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>Población según si tiene coche en 2015 (Tasa respuesta: 99,72%)</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>Población según si tiene coche en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
   </si>
   <si>
     <t>99,44%</t>
@@ -2400,7 +2412,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546CC918-1253-40FF-96E8-A459B7900B4E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{355F8D2D-1152-413C-964B-A9E997BC5BEE}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2662,13 +2674,13 @@
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="7">
         <v>13</v>
@@ -2677,13 +2689,13 @@
         <v>9975</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
@@ -2692,13 +2704,13 @@
         <v>13211</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
         <v>30</v>
@@ -2707,19 +2719,19 @@
         <v>23186</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" s="7">
         <v>18</v>
@@ -2728,13 +2740,13 @@
         <v>14190</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H8" s="7">
         <v>10</v>
@@ -2743,13 +2755,13 @@
         <v>7870</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M8" s="7">
         <v>28</v>
@@ -2758,13 +2770,13 @@
         <v>22060</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2779,13 +2791,13 @@
         <v>25444</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H9" s="7">
         <v>29</v>
@@ -2794,13 +2806,13 @@
         <v>22724</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M9" s="7">
         <v>62</v>
@@ -2809,18 +2821,18 @@
         <v>48168</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2838,7 +2850,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2853,7 +2865,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2868,7 +2880,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2883,13 +2895,13 @@
         <v>18264</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H11" s="7">
         <v>19</v>
@@ -2898,13 +2910,13 @@
         <v>12100</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M11" s="7">
         <v>46</v>
@@ -2913,13 +2925,13 @@
         <v>30364</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2934,13 +2946,13 @@
         <v>3336</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2955,7 +2967,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -2964,19 +2976,19 @@
         <v>3336</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="7">
         <v>49</v>
@@ -2985,13 +2997,13 @@
         <v>33106</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>46</v>
@@ -3000,13 +3012,13 @@
         <v>30937</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>95</v>
@@ -3015,19 +3027,19 @@
         <v>64044</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="7">
         <v>112</v>
@@ -3036,13 +3048,13 @@
         <v>72927</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>109</v>
@@ -3051,13 +3063,13 @@
         <v>72965</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>221</v>
@@ -3066,13 +3078,13 @@
         <v>145892</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3087,13 +3099,13 @@
         <v>127633</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H15" s="7">
         <v>174</v>
@@ -3102,13 +3114,13 @@
         <v>116002</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M15" s="7">
         <v>367</v>
@@ -3117,18 +3129,18 @@
         <v>243635</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3146,7 +3158,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3161,7 +3173,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3176,7 +3188,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,13 +3203,13 @@
         <v>14009</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H17" s="7">
         <v>37</v>
@@ -3206,13 +3218,13 @@
         <v>23184</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M17" s="7">
         <v>58</v>
@@ -3221,13 +3233,13 @@
         <v>37192</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3242,13 +3254,13 @@
         <v>5956</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="H18" s="7">
         <v>5</v>
@@ -3257,13 +3269,13 @@
         <v>3205</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M18" s="7">
         <v>14</v>
@@ -3272,19 +3284,19 @@
         <v>9161</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" s="7">
         <v>91</v>
@@ -3293,13 +3305,13 @@
         <v>60409</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H19" s="7">
         <v>91</v>
@@ -3308,13 +3320,13 @@
         <v>56307</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M19" s="7">
         <v>182</v>
@@ -3323,19 +3335,19 @@
         <v>116716</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" s="7">
         <v>201</v>
@@ -3344,13 +3356,13 @@
         <v>131768</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H20" s="7">
         <v>178</v>
@@ -3359,13 +3371,13 @@
         <v>111826</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M20" s="7">
         <v>379</v>
@@ -3374,13 +3386,13 @@
         <v>243595</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3395,13 +3407,13 @@
         <v>212142</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H21" s="7">
         <v>311</v>
@@ -3410,13 +3422,13 @@
         <v>194522</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M21" s="7">
         <v>633</v>
@@ -3425,18 +3437,18 @@
         <v>406664</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3454,7 +3466,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3469,7 +3481,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -3484,7 +3496,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3499,13 +3511,13 @@
         <v>10031</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H23" s="7">
         <v>23</v>
@@ -3514,13 +3526,13 @@
         <v>13886</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M23" s="7">
         <v>39</v>
@@ -3529,13 +3541,13 @@
         <v>23917</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3550,13 +3562,13 @@
         <v>2569</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -3565,13 +3577,13 @@
         <v>2948</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M24" s="7">
         <v>9</v>
@@ -3580,19 +3592,19 @@
         <v>5517</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C25" s="7">
         <v>75</v>
@@ -3601,13 +3613,13 @@
         <v>47700</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H25" s="7">
         <v>68</v>
@@ -3616,13 +3628,13 @@
         <v>41076</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M25" s="7">
         <v>143</v>
@@ -3631,19 +3643,19 @@
         <v>88775</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26" s="7">
         <v>137</v>
@@ -3652,13 +3664,13 @@
         <v>89357</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H26" s="7">
         <v>132</v>
@@ -3667,13 +3679,13 @@
         <v>79275</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M26" s="7">
         <v>269</v>
@@ -3682,13 +3694,13 @@
         <v>168632</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3703,13 +3715,13 @@
         <v>149657</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H27" s="7">
         <v>228</v>
@@ -3718,13 +3730,13 @@
         <v>137185</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M27" s="7">
         <v>460</v>
@@ -3733,18 +3745,18 @@
         <v>286842</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3762,7 +3774,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3777,7 +3789,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -3792,7 +3804,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3807,13 +3819,13 @@
         <v>22528</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>169</v>
+        <v>26</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H29" s="7">
         <v>36</v>
@@ -3822,13 +3834,13 @@
         <v>26964</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M29" s="7">
         <v>69</v>
@@ -3837,13 +3849,13 @@
         <v>49491</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3858,13 +3870,13 @@
         <v>2806</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
@@ -3873,13 +3885,13 @@
         <v>1582</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M30" s="7">
         <v>6</v>
@@ -3888,19 +3900,19 @@
         <v>4388</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>185</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C31" s="7">
         <v>78</v>
@@ -3951,7 +3963,7 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="7">
         <v>190</v>
@@ -4011,13 +4023,13 @@
         <v>207159</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H33" s="7">
         <v>273</v>
@@ -4026,13 +4038,13 @@
         <v>208632</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M33" s="7">
         <v>578</v>
@@ -4041,13 +4053,13 @@
         <v>415790</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,10 +4196,10 @@
         <v>219</v>
       </c>
       <c r="K36" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M36" s="7">
         <v>35</v>
@@ -4196,19 +4208,19 @@
         <v>22928</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C37" s="7">
         <v>306</v>
@@ -4217,13 +4229,13 @@
         <v>204794</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H37" s="7">
         <v>291</v>
@@ -4232,13 +4244,13 @@
         <v>193634</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M37" s="7">
         <v>597</v>
@@ -4247,19 +4259,19 @@
         <v>398427</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C38" s="7">
         <v>658</v>
@@ -4268,13 +4280,13 @@
         <v>436464</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H38" s="7">
         <v>595</v>
@@ -4283,13 +4295,13 @@
         <v>399919</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M38" s="7">
         <v>1253</v>
@@ -4298,13 +4310,13 @@
         <v>836382</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4319,13 +4331,13 @@
         <v>722035</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H39" s="7">
         <v>1015</v>
@@ -4334,13 +4346,13 @@
         <v>679065</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M39" s="7">
         <v>2100</v>
@@ -4349,18 +4361,18 @@
         <v>1401100</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -4381,7 +4393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{377EB677-DBE4-410F-940A-4C3C89C875CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E0EF604-C32D-4FF2-9765-964BB201AA11}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4398,7 +4410,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4511,37 +4523,37 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4562,37 +4574,37 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4607,13 +4619,13 @@
         <v>1001</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -4622,13 +4634,13 @@
         <v>832</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -4637,19 +4649,19 @@
         <v>1833</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="7">
         <v>12</v>
@@ -4658,13 +4670,13 @@
         <v>10889</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -4673,13 +4685,13 @@
         <v>8559</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M7" s="7">
         <v>23</v>
@@ -4688,19 +4700,19 @@
         <v>19448</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" s="7">
         <v>15</v>
@@ -4709,13 +4721,13 @@
         <v>13566</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H8" s="7">
         <v>14</v>
@@ -4724,10 +4736,10 @@
         <v>12982</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>267</v>
@@ -4760,13 +4772,13 @@
         <v>25455</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H9" s="7">
         <v>26</v>
@@ -4775,13 +4787,13 @@
         <v>22373</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M9" s="7">
         <v>54</v>
@@ -4790,18 +4802,18 @@
         <v>47828</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4882,10 +4894,10 @@
         <v>277</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>67</v>
+        <v>278</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M11" s="7">
         <v>20</v>
@@ -4894,13 +4906,13 @@
         <v>14589</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4915,13 +4927,13 @@
         <v>3558</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4945,19 +4957,19 @@
         <v>3558</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="7">
         <v>57</v>
@@ -4966,13 +4978,13 @@
         <v>39512</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H13" s="7">
         <v>46</v>
@@ -4981,13 +4993,13 @@
         <v>33447</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="M13" s="7">
         <v>103</v>
@@ -4996,19 +5008,19 @@
         <v>72960</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="7">
         <v>111</v>
@@ -5017,13 +5029,13 @@
         <v>78667</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H14" s="7">
         <v>106</v>
@@ -5032,13 +5044,13 @@
         <v>75808</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M14" s="7">
         <v>217</v>
@@ -5047,13 +5059,13 @@
         <v>154475</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5068,13 +5080,13 @@
         <v>129229</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H15" s="7">
         <v>162</v>
@@ -5083,13 +5095,13 @@
         <v>116352</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M15" s="7">
         <v>345</v>
@@ -5098,18 +5110,18 @@
         <v>245581</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5127,7 +5139,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5142,7 +5154,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5157,7 +5169,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5172,13 +5184,13 @@
         <v>13667</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H17" s="7">
         <v>21</v>
@@ -5187,13 +5199,13 @@
         <v>13794</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M17" s="7">
         <v>39</v>
@@ -5202,13 +5214,13 @@
         <v>27461</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5223,13 +5235,13 @@
         <v>5229</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>219</v>
+        <v>317</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="H18" s="7">
         <v>9</v>
@@ -5238,13 +5250,13 @@
         <v>5691</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="M18" s="7">
         <v>17</v>
@@ -5253,19 +5265,19 @@
         <v>10920</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" s="7">
         <v>107</v>
@@ -5274,13 +5286,13 @@
         <v>72544</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="H19" s="7">
         <v>96</v>
@@ -5289,13 +5301,13 @@
         <v>61128</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="M19" s="7">
         <v>203</v>
@@ -5304,19 +5316,19 @@
         <v>133672</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" s="7">
         <v>191</v>
@@ -5325,13 +5337,13 @@
         <v>132396</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="H20" s="7">
         <v>193</v>
@@ -5340,13 +5352,13 @@
         <v>125744</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="M20" s="7">
         <v>384</v>
@@ -5355,13 +5367,13 @@
         <v>258140</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5376,13 +5388,13 @@
         <v>223835</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H21" s="7">
         <v>319</v>
@@ -5391,13 +5403,13 @@
         <v>206358</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M21" s="7">
         <v>643</v>
@@ -5406,18 +5418,18 @@
         <v>430193</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5435,7 +5447,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5450,7 +5462,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -5465,7 +5477,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5480,13 +5492,13 @@
         <v>16809</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="H23" s="7">
         <v>16</v>
@@ -5495,13 +5507,13 @@
         <v>10965</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="M23" s="7">
         <v>38</v>
@@ -5510,13 +5522,13 @@
         <v>27774</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5531,13 +5543,13 @@
         <v>3307</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -5546,13 +5558,13 @@
         <v>1550</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>182</v>
+        <v>359</v>
       </c>
       <c r="M24" s="7">
         <v>9</v>
@@ -5561,19 +5573,19 @@
         <v>4857</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>181</v>
+        <v>361</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>17</v>
+        <v>362</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C25" s="7">
         <v>85</v>
@@ -5582,13 +5594,13 @@
         <v>53488</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="H25" s="7">
         <v>68</v>
@@ -5597,13 +5609,13 @@
         <v>41906</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>361</v>
+        <v>257</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="M25" s="7">
         <v>153</v>
@@ -5612,19 +5624,19 @@
         <v>95393</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26" s="7">
         <v>143</v>
@@ -5633,13 +5645,13 @@
         <v>92989</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="H26" s="7">
         <v>155</v>
@@ -5648,13 +5660,13 @@
         <v>100956</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="M26" s="7">
         <v>298</v>
@@ -5663,13 +5675,13 @@
         <v>193944</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5684,13 +5696,13 @@
         <v>166592</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H27" s="7">
         <v>242</v>
@@ -5699,13 +5711,13 @@
         <v>155376</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M27" s="7">
         <v>498</v>
@@ -5714,18 +5726,18 @@
         <v>321968</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5743,7 +5755,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -5758,7 +5770,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -5773,7 +5785,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>376</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5788,13 +5800,13 @@
         <v>24999</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>378</v>
+        <v>95</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="H29" s="7">
         <v>28</v>
@@ -5803,13 +5815,13 @@
         <v>22269</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="M29" s="7">
         <v>60</v>
@@ -5818,13 +5830,13 @@
         <v>47268</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5839,13 +5851,13 @@
         <v>2849</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>376</v>
+        <v>180</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="H30" s="7">
         <v>5</v>
@@ -5854,13 +5866,13 @@
         <v>3902</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="M30" s="7">
         <v>9</v>
@@ -5869,19 +5881,19 @@
         <v>6750</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>391</v>
+        <v>361</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C31" s="7">
         <v>89</v>
@@ -5890,13 +5902,13 @@
         <v>64389</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>393</v>
+        <v>188</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H31" s="7">
         <v>73</v>
@@ -5905,13 +5917,13 @@
         <v>54295</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M31" s="7">
         <v>162</v>
@@ -5920,19 +5932,19 @@
         <v>118684</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="7">
         <v>158</v>
@@ -5941,7 +5953,7 @@
         <v>116160</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>402</v>
+        <v>237</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>403</v>
@@ -5992,13 +6004,13 @@
         <v>208396</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H33" s="7">
         <v>273</v>
@@ -6007,13 +6019,13 @@
         <v>208764</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M33" s="7">
         <v>556</v>
@@ -6022,13 +6034,13 @@
         <v>417160</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6150,10 +6162,10 @@
         <v>420</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>65</v>
+        <v>286</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>15</v>
+        <v>421</v>
       </c>
       <c r="H36" s="7">
         <v>18</v>
@@ -6162,13 +6174,13 @@
         <v>11975</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>27</v>
+        <v>357</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M36" s="7">
         <v>42</v>
@@ -6177,19 +6189,19 @@
         <v>27918</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C37" s="7">
         <v>350</v>
@@ -6198,13 +6210,13 @@
         <v>240821</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H37" s="7">
         <v>294</v>
@@ -6213,13 +6225,13 @@
         <v>199335</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M37" s="7">
         <v>644</v>
@@ -6228,10 +6240,10 @@
         <v>440156</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>434</v>
@@ -6240,7 +6252,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C38" s="7">
         <v>618</v>
@@ -6282,10 +6294,10 @@
         <v>441</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>159</v>
+        <v>442</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6300,13 +6312,13 @@
         <v>753507</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H39" s="7">
         <v>1022</v>
@@ -6315,13 +6327,13 @@
         <v>709224</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M39" s="7">
         <v>2096</v>
@@ -6330,18 +6342,18 @@
         <v>1462731</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -6362,7 +6374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E7AA03D-1988-4EEB-8992-2073FE5ECD52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6810634E-3B35-48C6-B668-459912915EC3}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6379,7 +6391,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6492,7 +6504,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>415</v>
+        <v>445</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6507,7 +6519,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6522,7 +6534,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6537,13 +6549,13 @@
         <v>1648</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -6558,7 +6570,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -6567,13 +6579,13 @@
         <v>3022</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>283</v>
+        <v>450</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>449</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6588,13 +6600,13 @@
         <v>976</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -6603,13 +6615,13 @@
         <v>3102</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -6618,19 +6630,19 @@
         <v>4078</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="7">
         <v>10</v>
@@ -6639,13 +6651,13 @@
         <v>8152</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -6654,13 +6666,13 @@
         <v>4891</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
@@ -6669,19 +6681,19 @@
         <v>13042</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" s="7">
         <v>17</v>
@@ -6690,13 +6702,13 @@
         <v>14798</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="H8" s="7">
         <v>14</v>
@@ -6705,13 +6717,13 @@
         <v>13161</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="M8" s="7">
         <v>31</v>
@@ -6720,13 +6732,13 @@
         <v>27959</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6741,13 +6753,13 @@
         <v>25574</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H9" s="7">
         <v>24</v>
@@ -6756,13 +6768,13 @@
         <v>22527</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M9" s="7">
         <v>54</v>
@@ -6771,18 +6783,18 @@
         <v>48101</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -6800,7 +6812,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>223</v>
+        <v>476</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -6830,7 +6842,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6845,13 +6857,13 @@
         <v>7047</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -6860,13 +6872,13 @@
         <v>5743</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>425</v>
+        <v>481</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="M11" s="7">
         <v>17</v>
@@ -6875,13 +6887,13 @@
         <v>12790</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>480</v>
+        <v>421</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6896,13 +6908,13 @@
         <v>2917</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="H12" s="7">
         <v>8</v>
@@ -6911,13 +6923,13 @@
         <v>5136</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>104</v>
+        <v>316</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>378</v>
+        <v>488</v>
       </c>
       <c r="M12" s="7">
         <v>12</v>
@@ -6926,19 +6938,19 @@
         <v>8054</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>486</v>
+        <v>424</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="7">
         <v>47</v>
@@ -6947,13 +6959,13 @@
         <v>34477</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -6962,13 +6974,13 @@
         <v>23012</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>492</v>
+        <v>385</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="M13" s="7">
         <v>81</v>
@@ -6977,19 +6989,19 @@
         <v>57489</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>494</v>
+        <v>329</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="7">
         <v>105</v>
@@ -6998,13 +7010,13 @@
         <v>78061</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H14" s="7">
         <v>112</v>
@@ -7013,13 +7025,13 @@
         <v>76607</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M14" s="7">
         <v>217</v>
@@ -7028,13 +7040,13 @@
         <v>154668</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7049,13 +7061,13 @@
         <v>122502</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H15" s="7">
         <v>162</v>
@@ -7064,13 +7076,13 @@
         <v>110498</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M15" s="7">
         <v>327</v>
@@ -7079,18 +7091,18 @@
         <v>233000</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7108,7 +7120,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>220</v>
+        <v>507</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7123,7 +7135,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -7138,7 +7150,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7153,13 +7165,13 @@
         <v>19387</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -7168,13 +7180,13 @@
         <v>16865</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>13</v>
+        <v>514</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="M17" s="7">
         <v>53</v>
@@ -7183,13 +7195,13 @@
         <v>36252</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>133</v>
+        <v>517</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7204,13 +7216,13 @@
         <v>4112</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>166</v>
+        <v>380</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="H18" s="7">
         <v>5</v>
@@ -7219,13 +7231,13 @@
         <v>3179</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>517</v>
+        <v>323</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>87</v>
+        <v>273</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="M18" s="7">
         <v>11</v>
@@ -7234,19 +7246,19 @@
         <v>7290</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>519</v>
+        <v>128</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>275</v>
+        <v>522</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" s="7">
         <v>68</v>
@@ -7255,13 +7267,13 @@
         <v>44716</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="H19" s="7">
         <v>81</v>
@@ -7270,13 +7282,13 @@
         <v>48919</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="M19" s="7">
         <v>149</v>
@@ -7285,19 +7297,19 @@
         <v>93635</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" s="7">
         <v>231</v>
@@ -7306,13 +7318,13 @@
         <v>156144</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="H20" s="7">
         <v>222</v>
@@ -7321,13 +7333,13 @@
         <v>138285</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="M20" s="7">
         <v>453</v>
@@ -7336,13 +7348,13 @@
         <v>294429</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7357,13 +7369,13 @@
         <v>224359</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H21" s="7">
         <v>334</v>
@@ -7372,13 +7384,13 @@
         <v>207247</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M21" s="7">
         <v>666</v>
@@ -7387,18 +7399,18 @@
         <v>431606</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7416,7 +7428,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>538</v>
+        <v>355</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -7431,7 +7443,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -7446,7 +7458,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7461,13 +7473,13 @@
         <v>16070</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="H23" s="7">
         <v>18</v>
@@ -7476,13 +7488,13 @@
         <v>11503</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>542</v>
+        <v>384</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="M23" s="7">
         <v>40</v>
@@ -7491,10 +7503,10 @@
         <v>27574</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>546</v>
+        <v>14</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>547</v>
@@ -7512,13 +7524,13 @@
         <v>626</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>548</v>
+        <v>420</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -7527,13 +7539,13 @@
         <v>1151</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>281</v>
+        <v>548</v>
       </c>
       <c r="M24" s="7">
         <v>3</v>
@@ -7548,13 +7560,13 @@
         <v>549</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>320</v>
+        <v>451</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C25" s="7">
         <v>61</v>
@@ -7578,13 +7590,13 @@
         <v>39553</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>430</v>
+        <v>296</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>553</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>393</v>
+        <v>554</v>
       </c>
       <c r="M25" s="7">
         <v>128</v>
@@ -7593,7 +7605,7 @@
         <v>79309</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>554</v>
+        <v>153</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>555</v>
@@ -7605,7 +7617,7 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26" s="7">
         <v>163</v>
@@ -7632,7 +7644,7 @@
         <v>560</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>558</v>
+        <v>233</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>561</v>
@@ -7665,13 +7677,13 @@
         <v>165986</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H27" s="7">
         <v>259</v>
@@ -7680,13 +7692,13 @@
         <v>155997</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M27" s="7">
         <v>506</v>
@@ -7695,18 +7707,18 @@
         <v>321983</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7724,23 +7736,23 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7">
-        <v>0</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>566</v>
-      </c>
       <c r="M28" s="7">
         <v>0</v>
       </c>
@@ -7754,7 +7766,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>376</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7769,13 +7781,13 @@
         <v>18542</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>567</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>568</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>569</v>
       </c>
       <c r="H29" s="7">
         <v>26</v>
@@ -7784,13 +7796,13 @@
         <v>19733</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>571</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>572</v>
       </c>
       <c r="M29" s="7">
         <v>52</v>
@@ -7799,13 +7811,13 @@
         <v>38276</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>419</v>
+        <v>174</v>
       </c>
       <c r="P29" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>573</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7820,13 +7832,13 @@
         <v>1939</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>519</v>
+        <v>574</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>574</v>
+        <v>423</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -7835,13 +7847,13 @@
         <v>3341</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>285</v>
+        <v>575</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="M30" s="7">
         <v>7</v>
@@ -7850,10 +7862,10 @@
         <v>5279</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>577</v>
+        <v>508</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>578</v>
@@ -7862,7 +7874,7 @@
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C31" s="7">
         <v>57</v>
@@ -7913,7 +7925,7 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="7">
         <v>204</v>
@@ -7937,10 +7949,10 @@
         <v>135381</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>336</v>
+        <v>591</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>591</v>
+        <v>377</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>592</v>
@@ -7955,7 +7967,7 @@
         <v>593</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>374</v>
+        <v>539</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>594</v>
@@ -7973,13 +7985,13 @@
         <v>205736</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H33" s="7">
         <v>277</v>
@@ -7988,13 +8000,13 @@
         <v>204222</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M33" s="7">
         <v>567</v>
@@ -8003,13 +8015,13 @@
         <v>409958</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8095,10 +8107,10 @@
         <v>598</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>546</v>
+        <v>599</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>478</v>
+        <v>600</v>
       </c>
       <c r="M35" s="7">
         <v>166</v>
@@ -8107,13 +8119,13 @@
         <v>117914</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8128,13 +8140,13 @@
         <v>10569</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>340</v>
+        <v>129</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="H36" s="7">
         <v>22</v>
@@ -8143,13 +8155,13 @@
         <v>15908</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>185</v>
+        <v>606</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>284</v>
+        <v>607</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>146</v>
+        <v>608</v>
       </c>
       <c r="M36" s="7">
         <v>37</v>
@@ -8158,19 +8170,19 @@
         <v>26477</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>605</v>
+        <v>426</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C37" s="7">
         <v>243</v>
@@ -8179,13 +8191,13 @@
         <v>167038</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>608</v>
+        <v>189</v>
       </c>
       <c r="H37" s="7">
         <v>250</v>
@@ -8194,13 +8206,13 @@
         <v>162141</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>148</v>
+        <v>614</v>
       </c>
       <c r="M37" s="7">
         <v>493</v>
@@ -8209,19 +8221,19 @@
         <v>329180</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C38" s="7">
         <v>720</v>
@@ -8230,13 +8242,13 @@
         <v>503855</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="H38" s="7">
         <v>704</v>
@@ -8245,13 +8257,13 @@
         <v>467223</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>619</v>
+        <v>83</v>
       </c>
       <c r="M38" s="7">
         <v>1424</v>
@@ -8260,13 +8272,13 @@
         <v>971078</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8281,13 +8293,13 @@
         <v>744157</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H39" s="7">
         <v>1056</v>
@@ -8296,13 +8308,13 @@
         <v>700491</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M39" s="7">
         <v>2120</v>
@@ -8311,18 +8323,18 @@
         <v>1444648</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -8343,7 +8355,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1437A46-7A41-4A44-843F-1BD9F7B2FD97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91959516-F3BD-426F-B228-9DE40283DFDB}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8360,7 +8372,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8467,13 +8479,13 @@
         <v>12698</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H4" s="7">
         <v>28</v>
@@ -8482,13 +8494,13 @@
         <v>16787</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M4" s="7">
         <v>47</v>
@@ -8497,13 +8509,13 @@
         <v>29485</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8524,7 +8536,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -8539,7 +8551,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -8554,7 +8566,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8575,7 +8587,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -8590,7 +8602,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -8605,13 +8617,13 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -8626,7 +8638,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -8641,7 +8653,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -8656,13 +8668,13 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -8677,7 +8689,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -8692,7 +8704,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -8707,7 +8719,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8722,13 +8734,13 @@
         <v>12698</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H9" s="7">
         <v>28</v>
@@ -8737,13 +8749,13 @@
         <v>16787</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M9" s="7">
         <v>47</v>
@@ -8752,18 +8764,18 @@
         <v>29485</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -8775,13 +8787,13 @@
         <v>114596</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H10" s="7">
         <v>168</v>
@@ -8790,13 +8802,13 @@
         <v>103895</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M10" s="7">
         <v>320</v>
@@ -8805,13 +8817,13 @@
         <v>218490</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8832,7 +8844,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>317</v>
+        <v>636</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -8862,7 +8874,7 @@
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8883,7 +8895,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>317</v>
+        <v>636</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -8913,13 +8925,13 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -8934,7 +8946,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>317</v>
+        <v>636</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -8964,13 +8976,13 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -8985,7 +8997,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>317</v>
+        <v>636</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -9015,7 +9027,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9030,13 +9042,13 @@
         <v>114596</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H15" s="7">
         <v>168</v>
@@ -9045,13 +9057,13 @@
         <v>103895</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M15" s="7">
         <v>320</v>
@@ -9060,18 +9072,18 @@
         <v>218490</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -9083,13 +9095,13 @@
         <v>250186</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H16" s="7">
         <v>280</v>
@@ -9098,13 +9110,13 @@
         <v>192352</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M16" s="7">
         <v>623</v>
@@ -9113,13 +9125,13 @@
         <v>442538</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9140,7 +9152,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -9155,7 +9167,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -9170,7 +9182,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9191,7 +9203,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -9206,7 +9218,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -9221,13 +9233,13 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" s="7">
         <v>0</v>
@@ -9242,7 +9254,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -9257,7 +9269,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -9272,13 +9284,13 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -9293,7 +9305,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -9308,7 +9320,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -9323,7 +9335,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9338,13 +9350,13 @@
         <v>250186</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H21" s="7">
         <v>280</v>
@@ -9353,13 +9365,13 @@
         <v>192352</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M21" s="7">
         <v>623</v>
@@ -9368,18 +9380,18 @@
         <v>442538</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -9391,13 +9403,13 @@
         <v>173208</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H22" s="7">
         <v>227</v>
@@ -9406,13 +9418,13 @@
         <v>168735</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M22" s="7">
         <v>452</v>
@@ -9421,13 +9433,13 @@
         <v>341943</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9448,7 +9460,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -9463,7 +9475,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -9478,7 +9490,7 @@
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -9499,7 +9511,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -9514,7 +9526,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -9529,13 +9541,13 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
@@ -9550,7 +9562,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -9565,7 +9577,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -9580,13 +9592,13 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -9601,7 +9613,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -9616,7 +9628,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -9631,7 +9643,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9646,13 +9658,13 @@
         <v>173208</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H27" s="7">
         <v>227</v>
@@ -9661,13 +9673,13 @@
         <v>168735</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M27" s="7">
         <v>452</v>
@@ -9676,18 +9688,18 @@
         <v>341943</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -9699,13 +9711,13 @@
         <v>175016</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H28" s="7">
         <v>240</v>
@@ -9714,13 +9726,13 @@
         <v>171943</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M28" s="7">
         <v>478</v>
@@ -9729,13 +9741,13 @@
         <v>346958</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9756,7 +9768,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -9771,7 +9783,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -9786,7 +9798,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9807,7 +9819,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -9822,7 +9834,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -9837,13 +9849,13 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C31" s="7">
         <v>0</v>
@@ -9858,7 +9870,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -9873,7 +9885,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -9888,13 +9900,13 @@
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="7">
         <v>0</v>
@@ -9909,7 +9921,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -9924,7 +9936,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -9939,7 +9951,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9954,13 +9966,13 @@
         <v>175016</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H33" s="7">
         <v>240</v>
@@ -9969,13 +9981,13 @@
         <v>171943</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M33" s="7">
         <v>478</v>
@@ -9984,13 +9996,13 @@
         <v>346958</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10007,13 +10019,13 @@
         <v>725704</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H34" s="7">
         <v>943</v>
@@ -10022,13 +10034,13 @@
         <v>653712</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M34" s="7">
         <v>1920</v>
@@ -10037,13 +10049,13 @@
         <v>1379416</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10064,7 +10076,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -10079,7 +10091,7 @@
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -10094,7 +10106,7 @@
         <v>12</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10115,7 +10127,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -10130,7 +10142,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -10145,13 +10157,13 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C37" s="7">
         <v>0</v>
@@ -10166,7 +10178,7 @@
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -10181,7 +10193,7 @@
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -10196,13 +10208,13 @@
         <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C38" s="7">
         <v>0</v>
@@ -10217,7 +10229,7 @@
         <v>12</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -10232,7 +10244,7 @@
         <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -10247,7 +10259,7 @@
         <v>12</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10262,13 +10274,13 @@
         <v>725704</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H39" s="7">
         <v>943</v>
@@ -10277,13 +10289,13 @@
         <v>653712</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M39" s="7">
         <v>1920</v>
@@ -10292,18 +10304,18 @@
         <v>1379416</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
